--- a/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018707A-6945-4A69-AC51-249940481D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8EB1C3-B6CE-4559-A19E-62BB1269FA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -701,19 +701,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>오피스디포_Url</t>
+    <t>RPA08_견적서메일발송_박채연.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>드림디포_Url</t>
+    <t>오피스디포</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>양지사_Url</t>
+    <t>드림디포</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RPA08_견적서메일발송_박채연.xlsx</t>
+    <t>양지사</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>오피스디포_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>드림디포_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>양지사_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.officedepot.co.kr/cart/myCart.do</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1324,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1431,7 +1447,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>109</v>
@@ -1442,9 +1458,11 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:26">
@@ -1455,201 +1473,222 @@
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="4" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="40.5">
-      <c r="A18" s="4" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" ht="40.5">
+      <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.5">
-      <c r="A19" s="4" t="s">
+    <row r="22" spans="1:3" ht="409.5">
+      <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="67.5">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:3" ht="67.5">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="29" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="27">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:3" ht="27">
+      <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Downloads\REFramework-main\REFramework-main\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8EB1C3-B6CE-4559-A19E-62BB1269FA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -178,6 +177,267 @@
   </si>
   <si>
     <t>MailBody_NoData</t>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1}=과제명 dicConfig("과제명").ToString
+{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
+{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>결과양식명</t>
+  </si>
+  <si>
+    <t>GooglespreadKeywordId</t>
+  </si>
+  <si>
+    <t>GWS spreadsheet ID</t>
+  </si>
+  <si>
+    <t>SearchListSheetId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchListSheetName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스탬검색기준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetId</t>
+  </si>
+  <si>
+    <t>RPA결과시트 양식 Id &amp; 시트명</t>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetName</t>
+  </si>
+  <si>
+    <t>RPA처리결과</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
+    <t>Processing Transaction Number :</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data</t>
+  </si>
+  <si>
+    <t>Error getting transaction data for Transaction Number:</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception</t>
+  </si>
+  <si>
+    <t>Cint(dicConfig("TimeShort"))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailBody</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailTo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} = yyMMddhhss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0}=부서코드
+{1}=과제명 dicConfig("과제명").ToString
+{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>강동</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 추출 웹사이트</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\ExPath\</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RE-Framework RPA07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>견적서메일발송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.officedepot.co.kr/main/mainView.do</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RPA08 견적서메일발송</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA08_견적서메일발송_박채연.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>오피스디포</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>드림디포</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>양지사</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>오피스디포_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>드림디포_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>양지사_장바구니</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.officedepot.co.kr/cart/myCart.do</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -270,220 +530,19 @@
       </rPr>
       <t>&lt;/span&gt;&lt;/p&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
-{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>결과양식명</t>
-  </si>
-  <si>
-    <t>GooglespreadKeywordId</t>
-  </si>
-  <si>
-    <t>GWS spreadsheet ID</t>
-  </si>
-  <si>
-    <t>SearchListSheetId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchListSheetName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스탬검색기준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetId</t>
-  </si>
-  <si>
-    <t>RPA결과시트 양식 Id &amp; 시트명</t>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetName</t>
-  </si>
-  <si>
-    <t>RPA처리결과</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
-  </si>
-  <si>
-    <t>Processing Transaction Number :</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>Error getting transaction data for Transaction Number:</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
-  </si>
-  <si>
-    <t>Cint(dicConfig("TimeShort"))</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailBody</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Subject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MailTo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} = yyMMddhhss</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0}=부서코드
-{1}=과제명 dicConfig("과제명").ToString
-{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[RPA_{0}] {1} 처리 결과 : {2}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>강동</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 추출 웹사이트</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>요청</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Data\ExPath\</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data\Output\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Data\Input\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=결과시트 링크
-{3}=intTotalCnt
-{4}=intSuccessCnt
-{5}=intFailCnt
-{6}=strMemo
-{7}=추가할 테이블</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
+      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;안녕하세요.&lt;/span&gt;&lt;/p&gt;</t>
     </r>
     <r>
       <rPr>
@@ -493,30 +552,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&amp;nbsp;RPA_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;결과 데이터를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+      <t xml:space="preserve">
 &lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
     </r>
     <r>
@@ -528,7 +564,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{2}</t>
+      <t xml:space="preserve">{0} </t>
     </r>
     <r>
       <rPr>
@@ -538,206 +574,32 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;/span&gt;&lt;/p&gt;
-&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(207, 226, 243);" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(207, 226, 243);" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(207, 226, 243);" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(207, 226, 243);" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;/tr&gt;
-&lt;tr&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{4}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{5}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{6}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/table&gt;
-&lt;br&gt;&lt;br&gt;
-{7}</t>
+      <t xml:space="preserve">오피스디포 견적서 송부드립니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;br&gt;
+</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>mangoperry2015@gmail.com</t>
+    <t>{0}=날짜
+{1}=과제명 dicConfig("과제명").ToString</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[견적서] {0} 오피스디포 견적서</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">RE-Framework RPA07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>견적서메일발송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
+    <t>rpa.sj.jeong@gmail.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.officedepot.co.kr/main/mainView.do</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RPA08 견적서메일발송</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA08_견적서메일발송_박채연.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>오피스디포</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>드림디포</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>양지사</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>오피스디포_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>드림디포_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>양지사_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.officedepot.co.kr/cart/myCart.do</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -844,6 +706,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1027,7 +897,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{F8DF77D7-01EA-4C7E-9A4C-8B3CAA89BA60}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1339,21 +1209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="117.109375" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1387,36 +1257,36 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15.6">
       <c r="A5" s="29" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="15.6">
       <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1445,91 +1315,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.6">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="15.6">
       <c r="A12" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="15.6">
       <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="15.6">
       <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6">
+      <c r="A16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15.6">
       <c r="A18" s="29" t="s">
         <v>46</v>
       </c>
@@ -1538,119 +1408,119 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15.6">
       <c r="A19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5">
+    <row r="20" spans="1:3" ht="17.399999999999999">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3" ht="40.5">
+    <row r="21" spans="1:3" ht="46.8">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="78">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="67.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="78">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="A24" s="29" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="29" t="s">
-        <v>52</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15.6">
       <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6">
+      <c r="A26" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="A27" s="11" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.6">
+      <c r="A29" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6">
+      <c r="A30" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -1660,7 +1530,7 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="15.6">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -1671,13 +1541,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27">
+    <row r="34" spans="1:3" ht="31.2">
       <c r="A34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1697,22 +1567,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="37.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="124.6640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1723,12 +1593,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.4">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -1736,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.4">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -1750,45 +1620,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="14.4">
       <c r="A5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="20">
         <v>5000</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4">
+      <c r="A6" s="19" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="B6" s="20">
         <v>30000</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4">
+      <c r="A7" s="19" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="B7" s="20">
         <v>120000</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15.6">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -1799,110 +1669,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="14.4">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="14.4">
       <c r="A11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="20">
         <v>1000</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4">
+      <c r="A12" s="19" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="B12" s="20">
         <v>15000</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4">
+      <c r="A13" s="19" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="B13" s="20">
         <v>60000</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.4">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="14.4">
       <c r="A15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="20">
         <v>0.6</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4">
+      <c r="A16" s="19" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="B16" s="20">
         <v>0.8</v>
       </c>
       <c r="C16" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.4">
+      <c r="A17" s="19" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="B17" s="20">
         <v>0.9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.4">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="14.4">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" ht="14.4">
       <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="14.4">
       <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
@@ -1910,10 +1780,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.4">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -1921,10 +1791,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4">
       <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
@@ -1932,10 +1802,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.4">
       <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.4">
       <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
@@ -1957,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="14.4">
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
@@ -1968,7 +1838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5">
+    <row r="27" spans="1:3" ht="26.4">
       <c r="A27" s="19" t="s">
         <v>27</v>
       </c>
@@ -1979,69 +1849,69 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="14.4">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="14.4">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="14.4">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="14.4">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="14.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="14.4">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="14.4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="14.4">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="14.4">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="14.4">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="14.4">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="14.4">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="14.4">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="2"/>
@@ -3001,19 +2871,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Downloads\REFramework-main\REFramework-main\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80743A-2763-4C00-AB7A-C038F4E880CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -326,12 +327,6 @@
   </si>
   <si>
     <t>{0} = yyMMddhhss</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0}=부서코드
-{1}=과제명 dicConfig("과제명").ToString
-{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -587,18 +582,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[견적서] {0} 오피스디포 견적서</t>
+    <t>mangoperry2015@gmail.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>rpa.sj.jeong@gmail.com</t>
+    <t>[견적서] {0} 오피스디포 견적서_박채연</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}=날짜</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -897,7 +896,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,21 +1208,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="117.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1257,36 +1256,36 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6">
+    <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.6">
+    <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="15.6">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.6">
+    <row r="5" spans="1:26">
       <c r="A5" s="29" t="s">
         <v>36</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.6">
+    <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.6">
+    <row r="7" spans="1:26">
       <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1315,91 +1314,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.6">
+    <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.6">
-      <c r="A9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.6">
-      <c r="A10" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6">
+    <row r="11" spans="1:26">
       <c r="A11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.6">
+    <row r="12" spans="1:26">
       <c r="A12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.6">
+    <row r="13" spans="1:26">
       <c r="A13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.6">
+    <row r="14" spans="1:26">
       <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.6">
+    <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="15.6">
+    <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6">
+    <row r="18" spans="1:3">
       <c r="A18" s="29" t="s">
         <v>46</v>
       </c>
@@ -1408,23 +1407,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B19" t="s">
-        <v>118</v>
+      <c r="B19" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999">
+    <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3" ht="46.8">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -1432,50 +1431,50 @@
         <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="78">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="67.5">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="78">
+    </row>
+    <row r="23" spans="1:3" ht="67.5">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6">
+    <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" ht="15.6">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6">
+    <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>55</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6">
+    <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:3" ht="15.6">
+    <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6">
+    <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
         <v>61</v>
       </c>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:3" ht="15.6">
+    <row r="31" spans="1:3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -1530,7 +1529,7 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" ht="15.6">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.2">
+    <row r="34" spans="1:3" ht="27">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -1567,22 +1566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="124.6640625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="17"/>
+    <col min="1" max="1" width="37.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="124.7109375" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1593,12 +1592,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="14.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.4">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>68</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>70</v>
       </c>
@@ -1653,12 +1652,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -1669,12 +1668,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" ht="14.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>76</v>
       </c>
@@ -1707,12 +1706,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" ht="14.4">
+    <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>78</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4">
+    <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>80</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>82</v>
       </c>
@@ -1745,12 +1744,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4">
+    <row r="18" spans="1:3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="14.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4">
+    <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4">
+    <row r="21" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4">
+    <row r="23" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4">
+    <row r="24" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4">
+    <row r="25" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4">
+    <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.4">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="19" t="s">
         <v>27</v>
       </c>
@@ -1849,69 +1848,69 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4">
+    <row r="28" spans="1:3">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="1:3" ht="14.4">
+    <row r="29" spans="1:3">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:3" ht="14.4">
+    <row r="30" spans="1:3">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:3" ht="14.4">
+    <row r="31" spans="1:3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" ht="14.4">
+    <row r="32" spans="1:3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" ht="14.4">
+    <row r="33" spans="1:3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" ht="14.4">
+    <row r="34" spans="1:3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" ht="14.4">
+    <row r="35" spans="1:3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" ht="14.4">
+    <row r="36" spans="1:3">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>90</v>
       </c>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3" ht="14.4">
+    <row r="37" spans="1:3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" ht="14.4">
+    <row r="38" spans="1:3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" ht="14.4">
+    <row r="39" spans="1:3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" ht="14.4">
+    <row r="40" spans="1:3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="2"/>
@@ -2871,19 +2870,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80743A-2763-4C00-AB7A-C038F4E880CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E900E-F5CB-4E85-A805-A58E755E7130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,16 +582,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>mangoperry2015@gmail.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[견적서] {0} 오피스디포 견적서_박채연</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{0}=날짜</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa.sj.jeong@gmail.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1412,7 +1412,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="67.5">

--- a/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_견적서메일발송_박채연/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_견적서메일발송_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E900E-F5CB-4E85-A805-A58E755E7130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2AB2E-1239-49A9-9F0D-E93402832610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -358,43 +358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">RE-Framework RPA07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>견적서메일발송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.officedepot.co.kr/main/mainView.do</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -408,30 +371,6 @@
   </si>
   <si>
     <t>오피스디포</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>드림디포</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>양지사</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>오피스디포_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>드림디포_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>양지사_장바구니</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.officedepot.co.kr/cart/myCart.do</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -582,16 +521,58 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[견적서] {0} 오피스디포 견적서_박채연</t>
+    <t>rpa.sj.jeong@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mangoperry2015@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RE-Framework RPA08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>견적서메일발송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{0}=날짜</t>
+    <t>[견적서] {0} 오피스디포 견적서_박채연 / 처리결과: {1}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1} 처리결과</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rpa.sj.jeong@gmail.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1209,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1270,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1279,7 +1260,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1316,248 +1297,213 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="28" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="16.5">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" ht="27">
+      <c r="A16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="8" t="s">
+      <c r="C16" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="67.5">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="10" t="s">
-        <v>47</v>
+    </row>
+    <row r="18" spans="1:3" ht="67.5">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5">
+      <c r="A19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="67.5">
-      <c r="A22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="67.5">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="30" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="30" t="s">
-        <v>56</v>
-      </c>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="31"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27">
-      <c r="A34" s="4" t="s">
+    <row r="29" spans="1:3" ht="27">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1602,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>65</v>
